--- a/Raw_data_cleaned/Burley/Burley26.xlsx
+++ b/Raw_data_cleaned/Burley/Burley26.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitvaraaravithya/Documents/tobacco_project_review/Raw_data_cleaned/Burley/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCDC4350-EC48-5144-A9B8-5756A96B4525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A0C32E1-9D93-429C-88E2-D55FE2E72702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="3800" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,16 +355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B9AF02-60A8-FC45-8851-57BAEFFEA3ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="32" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:BE305"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1.305E-3</v>
       </c>
@@ -710,7 +710,7 @@
         <v>278.88161591240328</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1.9580000000000001E-3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>273.73925017637305</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2.611E-3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>269.13444114683375</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3.264E-3</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>264.91739617727882</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3.9160000000000002E-3</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>261.00840229132865</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4.5690000000000001E-3</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>257.34015937284778</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5.2220000000000001E-3</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>253.88005995597092</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5.875E-3</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>250.59938100823888</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8.4860000000000005E-3</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>238.89376938125221</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1.1096999999999999E-2</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>228.87554436960431</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1.3055000000000001E-2</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>222.18321161048479</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1.6319E-2</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>212.23188211852477</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1.7624000000000001E-2</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>208.60230082059053</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1.9581999999999999E-2</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>203.47261058309721</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2.0235E-2</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>201.83875621252773</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2.7414999999999998E-2</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>185.94860086599815</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>3.4595000000000001E-2</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>172.96633163052306</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>3.7858999999999997E-2</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>167.78383615271156</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3.9816999999999998E-2</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>164.85504440353753</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>4.0469999999999999E-2</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>163.90603532189829</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>4.4386000000000002E-2</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>158.48315560445766</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>4.6996999999999997E-2</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>155.10173121052145</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>5.3525000000000003E-2</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>147.35432787477458</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5.4829999999999997E-2</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>145.91366638555812</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>6.0705000000000002E-2</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>139.81571523396025</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>6.4620999999999998E-2</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>136.06817928725312</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>6.7232E-2</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>133.69514835941143</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>6.7885000000000001E-2</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>133.11640643038101</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>6.8538000000000002E-2</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>132.54336691300355</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>6.9843000000000002E-2</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>131.41487683330161</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>7.1149000000000004E-2</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>130.30722174608692</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>7.1802000000000005E-2</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>129.76131671691169</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7.3107000000000005E-2</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>128.68574943370911</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>7.3760000000000006E-2</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>128.15510134969603</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7.5065000000000007E-2</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>127.10931139038037</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>7.5717999999999994E-2</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>126.59321711528226</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>7.6370999999999994E-2</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>126.08182825238704</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>7.8981999999999997E-2</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>124.08267201139235</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>8.0286999999999997E-2</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>123.10988874460394</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>8.2244999999999999E-2</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>121.68192646639885</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>8.2897999999999999E-2</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>121.21388282462645</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>8.3551E-2</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>120.74983686116651</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>8.4856000000000001E-2</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>119.83420826103146</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>8.6815000000000003E-2</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>118.48830761703137</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>8.8120000000000004E-2</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>117.61016719359439</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>9.0078000000000005E-2</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>116.31928451631909</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>9.0731000000000006E-2</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>115.8956959978854</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>9.2688999999999994E-2</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>114.64570725380473</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>9.3341999999999994E-2</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>114.23539808010203</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>9.4647999999999996E-2</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>113.42437842170985</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>9.5299999999999996E-2</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>113.02419707046933</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>9.9217E-2</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>110.68356016548154</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>9.9868999999999999E-2</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>110.30417535665663</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>0.100522</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>109.92703701895593</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>0.103133</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>108.44666305211526</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>0.103786</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>108.0831649565295</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>0.10639700000000001</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>106.65571380463787</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>0.10966099999999999</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>104.92748298612288</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>0.120104</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>99.779974006866368</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>0.12402100000000001</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>97.985095061054139</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>0.130548</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>95.141200765445603</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>0.137076</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>92.465192315935283</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>0.138381</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>91.949009762262222</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>0.13968700000000001</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>91.438417570493613</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>0.14099200000000001</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>90.93408546770678</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>0.14229800000000001</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>90.435131161778756</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>0.145561</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>89.213019540533139</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>0.14621400000000001</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>88.972549282375724</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>0.148172</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>88.259485732863595</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0.149478</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>87.790401301895855</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>0.15143599999999999</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>87.096698716732647</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>0.15665799999999999</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>85.300606229443403</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>0.16253300000000001</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>83.368592820421227</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>0.16514400000000001</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>82.538350906006926</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.165796</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>82.333650755359869</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.16644900000000001</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>82.129669661097751</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>0.17167099999999999</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>80.53464559944787</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>0.17558699999999999</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>79.379097522202699</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>0.178198</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>78.627055537159293</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>0.18537899999999999</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>76.63073874579905</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>0.18668399999999999</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>76.278811820372155</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>0.18798999999999999</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>75.929836370404544</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>0.188642</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>75.756806981597791</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>0.19125300000000001</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>75.071707293692967</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>0.194517</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>74.232433253535305</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>0.19778100000000001</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>73.411601899206232</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>0.19908600000000001</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>73.088435637399243</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>0.199739</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>72.927784019773426</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>0.203655</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>71.978828189785474</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>0.20430799999999999</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>71.822955320997366</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>0.20561399999999999</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>71.513197768408816</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>0.20887700000000001</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>70.750654738545478</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>0.21279400000000001</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>69.85611670279863</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>0.216057</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>69.127686333782222</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>0.221279</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>67.992315779871689</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>0.22715399999999999</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>66.757607551234329</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>0.234987</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>65.177453180336101</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>0.238903</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>64.414238542982844</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>0.24086199999999999</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>64.038849553318926</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>0.24216699999999999</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>63.791103468534139</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>0.24934700000000001</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>62.460198629706461</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>0.25326399999999999</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>61.756251583799134</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>0.25652700000000001</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>61.181263613636439</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>0.25783299999999998</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>60.953966039555517</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>0.26893</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>59.085243530822872</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>0.28328999999999999</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>56.821420800054092</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>0.28655399999999998</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>56.329307003472728</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>0.29177500000000001</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>55.558397153905837</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>0.293734</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>55.27416374454085</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>0.29569200000000001</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>54.992750592848701</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>0.29960799999999999</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>54.437788386967505</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>0.300261</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>54.34625062278041</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>0.30156699999999997</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>54.164022603969052</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>0.304178</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>53.803055255169831</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>0.30678899999999998</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>53.446480509552593</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>0.30874699999999999</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>53.18191461963081</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>0.31070500000000001</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>52.919736265922786</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>0.31135800000000002</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>52.832823808056027</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>0.31201000000000001</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>52.746304335556268</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>0.31331599999999998</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>52.573776085829444</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>0.313969</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>52.487897740834164</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>0.31462099999999998</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>52.402405879686249</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>0.31592700000000001</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>52.231921354017182</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>0.320496</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>51.643354891275557</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>0.32180199999999998</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>51.477330045941748</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>0.32310699999999998</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>51.312397304850911</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>0.32441300000000001</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>51.14829495860814</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>0.32767600000000002</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>50.742415932102496</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>0.33094000000000001</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>50.34220049461485</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>0.33289800000000003</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>50.104843666232462</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>0.334204</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>49.947643307511008</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>0.33485599999999999</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>49.869495402642677</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>0.33616200000000002</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>49.713619737151269</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>0.33746700000000002</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>49.558736130810537</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>0.33811999999999998</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>49.481560023514099</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>0.33877299999999999</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>49.404599431631759</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>0.34203699999999998</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>49.023111927547781</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0.34660600000000003</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>48.497880976369338</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>0.34725800000000001</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>48.423749562252475</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>0.35117500000000001</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>47.982614044216511</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>0.35182799999999997</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>47.90976850802123</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>0.35248000000000002</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>47.837230643967558</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>0.354439</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>47.620453834319143</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>0.35509099999999999</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>47.548692364804062</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>0.35704999999999998</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>47.334228438590259</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>0.35770200000000002</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>47.263230200212647</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>0.36227199999999998</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>46.770837685388493</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>0.36357699999999998</v>
       </c>
@@ -26141,7 +26141,7 @@
         <v>46.631893705959335</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>0.36749300000000001</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>46.219297096639899</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>0.37010399999999999</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>45.947756934788046</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>0.37663200000000002</v>
       </c>
@@ -26660,7 +26660,7 @@
         <v>45.280977382141145</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>0.37793700000000002</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>45.149715046914871</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>0.37989600000000001</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>44.953916313983662</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>0.380548</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>44.889078990282492</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>0.38120100000000001</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>44.82430579663481</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>0.38642300000000002</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>44.312129650108474</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>0.38968700000000001</v>
       </c>
@@ -27698,7 +27698,7 @@
         <v>43.99714496621506</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>0.39033899999999999</v>
       </c>
@@ -27871,7 +27871,7 @@
         <v>43.934691242150606</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>0.40274199999999999</v>
       </c>
@@ -28044,7 +28044,7 @@
         <v>42.775243664642815</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>0.41644900000000001</v>
       </c>
@@ -28217,7 +28217,7 @@
         <v>41.553914170980626</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>0.42885099999999998</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>40.499288912575203</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>0.436031</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>39.909290986831401</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>0.43733699999999998</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>39.803533413587338</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>0.46083600000000002</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>37.978094426824676</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>0.46279399999999998</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>37.832312086032005</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>0.46344600000000002</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>37.783973605832955</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>0.46736299999999997</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>37.495714305204352</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>0.47193200000000002</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>37.164042368387278</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>0.47388999999999998</v>
       </c>
@@ -29774,7 +29774,7 @@
         <v>37.023387143653729</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>0.47519600000000001</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>36.930056096037433</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>0.48302899999999999</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>36.378311691667378</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0.48368100000000003</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>36.332996124733945</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>0.484987</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>36.242503520448111</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>0.48759799999999998</v>
       </c>
@@ -30639,7 +30639,7 @@
         <v>36.062689255873238</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>0.49020900000000001</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>35.884327979305631</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>0.49934699999999999</v>
       </c>
@@ -30985,7 +30985,7 @@
         <v>35.271274025042217</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>0.50391600000000003</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>34.971096454082286</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>0.50456900000000005</v>
       </c>
@@ -31331,7 +31331,7 @@
         <v>34.928532968152957</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>0.50717999999999996</v>
       </c>
@@ -31504,7 +31504,7 @@
         <v>34.759177937268262</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>0.51044400000000001</v>
       </c>
@@ -31677,7 +31677,7 @@
         <v>34.54932457767331</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>0.51566599999999996</v>
       </c>
@@ -31850,7 +31850,7 @@
         <v>34.217800947620873</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>0.51893</v>
       </c>
@@ -32023,7 +32023,7 @@
         <v>34.013169856508803</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>0.51958199999999999</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>33.972528882691279</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>0.52349900000000005</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>33.729999313039457</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>0.52480400000000005</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>33.64981168097853</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>0.52545699999999995</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>33.609801351961607</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>0.53263700000000003</v>
       </c>
@@ -32888,7 +32888,7 @@
         <v>33.174825590607647</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>0.53655399999999998</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>32.941288455690703</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>0.54047000000000001</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>32.710405225161772</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>0.54112300000000002</v>
       </c>
@@ -33407,7 +33407,7 @@
         <v>32.672154165169445</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>0.54308100000000004</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>32.557882293487395</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>0.54503900000000005</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>32.444240129609895</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>0.54830299999999998</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>32.256182777234564</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>0.55156700000000003</v>
       </c>
@@ -34099,7 +34099,7 @@
         <v>32.069835122437752</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>0.55613599999999996</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>31.811807802906095</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>0.56396900000000005</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>31.376946190427248</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>0.56462100000000004</v>
       </c>
@@ -34618,7 +34618,7 @@
         <v>31.341168166705756</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>0.56527400000000005</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>31.305398932268993</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>0.56723199999999996</v>
       </c>
@@ -34964,7 +34964,7 @@
         <v>31.19852615147046</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>0.56984299999999999</v>
       </c>
@@ -35137,7 +35137,7 @@
         <v>31.056891372243769</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>0.570496</v>
       </c>
@@ -35310,7 +35310,7 @@
         <v>31.021625249522032</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>0.57376000000000005</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>30.846276526367397</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>0.57441299999999995</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>30.811380468440888</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>0.57506500000000005</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>30.776598804756723</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>0.57637099999999997</v>
       </c>
@@ -36002,7 +36002,7 @@
         <v>30.70711130050806</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>0.578982</v>
       </c>
@@ -36175,7 +36175,7 @@
         <v>30.568914772379316</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>0.57963399999999998</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>30.534555238876855</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>0.580287</v>
       </c>
@@ -36521,7 +36521,7 @@
         <v>30.500202720116263</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>0.58355100000000004</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>30.32938289767813</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>0.58420399999999995</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>30.295385417621105</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>0.58681499999999998</v>
       </c>
@@ -37040,7 +37040,7 @@
         <v>30.16003179145244</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>0.58877299999999999</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>30.059138375812921</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>0.59203700000000004</v>
       </c>
@@ -37386,7 +37386,7 @@
         <v>29.892095800144482</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>0.59334200000000004</v>
       </c>
@@ -37559,7 +37559,7 @@
         <v>29.825707277871238</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>0.59464799999999995</v>
       </c>
@@ -37732,7 +37732,7 @@
         <v>29.759493549229546</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>0.59530000000000005</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>29.726521490740801</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>0.59595299999999995</v>
       </c>
@@ -38078,7 +38078,7 @@
         <v>29.693554803168993</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>0.599217</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>29.529605914444303</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>0.60509100000000005</v>
       </c>
@@ -38424,7 +38424,7 @@
         <v>29.238013529665523</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>0.60770199999999996</v>
       </c>
@@ -38597,7 +38597,7 @@
         <v>29.109803940624118</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>0.61553500000000005</v>
       </c>
@@ -38770,7 +38770,7 @@
         <v>28.730245392718146</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>0.63903399999999999</v>
       </c>
@@ -38943,7 +38943,7 @@
         <v>27.635203995932528</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>0.64229800000000004</v>
       </c>
@@ -39116,7 +39116,7 @@
         <v>27.488050509200598</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>0.64425600000000005</v>
       </c>
@@ -39289,7 +39289,7 @@
         <v>27.400334268118826</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>0.64686699999999997</v>
       </c>
@@ -39462,7 +39462,7 @@
         <v>27.284008697519567</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>0.66122700000000001</v>
       </c>
@@ -39635,7 +39635,7 @@
         <v>26.657092395064851</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>0.66253300000000004</v>
       </c>
@@ -39808,7 +39808,7 @@
         <v>26.601130613167619</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>0.68929499999999999</v>
       </c>
@@ -39981,7 +39981,7 @@
         <v>25.491121115550982</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>0.68994800000000001</v>
       </c>
@@ -40154,7 +40154,7 @@
         <v>25.464881907331943</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>0.71018300000000001</v>
       </c>
@@ -40327,7 +40327,7 @@
         <v>24.67063337886372</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>0.71083600000000002</v>
       </c>
@@ -40500,7 +40500,7 @@
         <v>24.645595196593405</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>0.72715399999999997</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>24.031433787147542</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>0.73759799999999998</v>
       </c>
@@ -40846,7 +40846,7 @@
         <v>23.649624143094911</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>0.73825099999999999</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>23.62603510152281</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>0.74477800000000005</v>
       </c>
@@ -41192,7 +41192,7 @@
         <v>23.392048513290348</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>0.74543099999999995</v>
       </c>
@@ -41365,7 +41365,7 @@
         <v>23.368817157455076</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>0.74738899999999997</v>
       </c>
@@ -41538,7 +41538,7 @@
         <v>23.299350843483424</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>0.74804199999999998</v>
       </c>
@@ -41711,7 +41711,7 @@
         <v>23.276247438547557</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>0.75979099999999999</v>
       </c>
@@ -41884,7 +41884,7 @@
         <v>22.865934578073492</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>0.76958199999999999</v>
       </c>
@@ -42057,7 +42057,7 @@
         <v>22.53158878706251</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>0.78916399999999998</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>21.88268749571801</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>0.80678899999999998</v>
       </c>
@@ -42403,7 +42403,7 @@
         <v>21.320097169649642</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>0.80874699999999999</v>
       </c>
@@ -42576,7 +42576,7 @@
         <v>21.258801665839222</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>0.81266300000000002</v>
       </c>
@@ -42749,7 +42749,7 @@
         <v>21.136915389998009</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>0.82114900000000002</v>
       </c>
@@ -42922,7 +42922,7 @@
         <v>20.875964039517278</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>0.82310700000000003</v>
       </c>
@@ -43095,7 +43095,7 @@
         <v>20.816362255145989</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>0.82637099999999997</v>
       </c>
@@ -43268,7 +43268,7 @@
         <v>20.717505620612414</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>0.83094000000000001</v>
       </c>
@@ -43441,7 +43441,7 @@
         <v>20.580163921418965</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>0.83811999999999998</v>
       </c>
@@ -43614,7 +43614,7 @@
         <v>20.366750115949486</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>0.84268900000000002</v>
       </c>
@@ -43787,7 +43787,7 @@
         <v>20.232454678672113</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>0.84725799999999996</v>
       </c>
@@ -43960,7 +43960,7 @@
         <v>20.099315166072287</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>0.85378600000000004</v>
       </c>
@@ -44133,7 +44133,7 @@
         <v>19.911065548659643</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>0.85966100000000001</v>
       </c>
@@ -44306,7 +44306,7 @@
         <v>19.743599970369836</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>0.87141000000000002</v>
       </c>
@@ -44479,7 +44479,7 @@
         <v>19.414118393721907</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>0.87206300000000003</v>
       </c>
@@ -44652,7 +44652,7 @@
         <v>19.396014355775229</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>0.87467399999999995</v>
       </c>
@@ -44825,7 +44825,7 @@
         <v>19.323841945732639</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>0.87989600000000001</v>
       </c>
@@ -44998,7 +44998,7 @@
         <v>19.18052551061087</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>0.88185400000000003</v>
       </c>
@@ -45171,7 +45171,7 @@
         <v>19.127138854233294</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>0.88642299999999996</v>
       </c>
@@ -45344,7 +45344,7 @@
         <v>19.003295363825707</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>0.88903399999999999</v>
       </c>
@@ -45517,7 +45517,7 @@
         <v>18.932981491828002</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>0.89164500000000002</v>
       </c>
@@ -45690,7 +45690,7 @@
         <v>18.862997430590852</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>0.89229800000000004</v>
       </c>
@@ -45863,7 +45863,7 @@
         <v>18.845545985027492</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>0.89360300000000004</v>
       </c>
@@ -46036,7 +46036,7 @@
         <v>18.810731019245111</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>0.89556100000000005</v>
       </c>
@@ -46209,7 +46209,7 @@
         <v>18.758647691881279</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>0.90143600000000002</v>
       </c>
@@ -46382,7 +46382,7 @@
         <v>18.603459875381773</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>0.90339400000000003</v>
       </c>
@@ -46555,7 +46555,7 @@
         <v>18.552098951622746</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>0.90535200000000005</v>
       </c>
@@ -46728,7 +46728,7 @@
         <v>18.500916137096652</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>0.90731099999999998</v>
       </c>
@@ -46901,7 +46901,7 @@
         <v>18.449884454424492</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>0.90926899999999999</v>
       </c>
@@ -47074,7 +47074,7 @@
         <v>18.399055037595922</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>0.91188000000000002</v>
       </c>
@@ -47247,7 +47247,7 @@
         <v>18.331546271605724</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>0.91253300000000004</v>
       </c>
@@ -47420,7 +47420,7 @@
         <v>18.314711056783615</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>0.921018</v>
       </c>
@@ -47593,7 +47593,7 @@
         <v>18.097699576252523</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>0.92167100000000002</v>
       </c>
@@ -47766,7 +47766,7 @@
         <v>18.081131466926855</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>0.92232400000000003</v>
       </c>
@@ -47939,7 +47939,7 @@
         <v>18.064582188596496</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>0.92362900000000003</v>
       </c>
@@ -48112,7 +48112,7 @@
         <v>18.031565261641909</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>0.92754599999999998</v>
       </c>
@@ -48285,7 +48285,7 @@
         <v>17.932912046826658</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>0.92885099999999998</v>
       </c>
@@ -48458,7 +48458,7 @@
         <v>17.900192858762438</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>0.93146200000000001</v>
       </c>
@@ -48631,7 +48631,7 @@
         <v>17.834950524337515</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>0.93211500000000003</v>
       </c>
@@ -48804,7 +48804,7 @@
         <v>17.81867959542015</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>0.93472599999999995</v>
       </c>
@@ -48977,7 +48977,7 @@
         <v>17.753803358013258</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>0.93864199999999998</v>
       </c>
@@ -49150,7 +49150,7 @@
         <v>17.657045413988733</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>0.94255900000000004</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>17.560909644832179</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>0.94321100000000002</v>
       </c>
@@ -49496,7 +49496,7 @@
         <v>17.544969799234593</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>0.94843299999999997</v>
       </c>
@@ -49669,7 +49669,7 @@
         <v>17.417940541423768</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>0.949739</v>
       </c>
@@ -49842,7 +49842,7 @@
         <v>17.386346757095666</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>0.95365500000000003</v>
       </c>
@@ -50015,7 +50015,7 @@
         <v>17.292031296318179</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>0.95691899999999996</v>
       </c>
@@ -50188,7 +50188,7 @@
         <v>17.213893908246838</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>0.95757199999999998</v>
       </c>
@@ -50361,7 +50361,7 @@
         <v>17.198313113942554</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>0.96083600000000002</v>
       </c>
@@ -50534,7 +50534,7 @@
         <v>17.120688651683118</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>0.96279400000000004</v>
       </c>
@@ -50707,7 +50707,7 @@
         <v>17.074326882046222</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>0.96344600000000002</v>
       </c>
@@ -50880,7 +50880,7 @@
         <v>17.058922421060295</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>0.96409900000000004</v>
       </c>
@@ -51053,7 +51053,7 @@
         <v>17.043511149506585</v>
       </c>
     </row>
-    <row r="294" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>0.96475200000000005</v>
       </c>
@@ -51226,7 +51226,7 @@
         <v>17.028116677827327</v>
       </c>
     </row>
-    <row r="295" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>0.96540499999999996</v>
       </c>
@@ -51399,7 +51399,7 @@
         <v>17.012738977158357</v>
       </c>
     </row>
-    <row r="296" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>0.96670999999999996</v>
       </c>
@@ -51572,7 +51572,7 @@
         <v>16.982057259048304</v>
       </c>
     </row>
-    <row r="297" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>0.96866799999999997</v>
       </c>
@@ -51745,7 +51745,7 @@
         <v>16.936147851214223</v>
       </c>
     </row>
-    <row r="298" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>0.96932099999999999</v>
       </c>
@@ -51918,7 +51918,7 @@
         <v>16.920870123447081</v>
       </c>
     </row>
-    <row r="299" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>0.969974</v>
       </c>
@@ -52091,7 +52091,7 @@
         <v>16.905608966615816</v>
       </c>
     </row>
-    <row r="300" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>0.971279</v>
       </c>
@@ -52264,7 +52264,7 @@
         <v>16.8751595601207</v>
       </c>
     </row>
-    <row r="301" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>0.97389000000000003</v>
       </c>
@@ -52437,7 +52437,7 @@
         <v>16.814434847532638</v>
       </c>
     </row>
-    <row r="302" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>0.97454300000000005</v>
       </c>
@@ -52610,7 +52610,7 @@
         <v>16.799288847674184</v>
       </c>
     </row>
-    <row r="303" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>0.97519599999999995</v>
       </c>
@@ -52783,7 +52783,7 @@
         <v>16.78415919406153</v>
       </c>
     </row>
-    <row r="304" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>0.97584899999999997</v>
       </c>
@@ -52956,7 +52956,7 @@
         <v>16.769045858891509</v>
       </c>
     </row>
-    <row r="305" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>0.97650099999999995</v>
       </c>
